--- a/data/optim-data/selection.xlsx
+++ b/data/optim-data/selection.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S78"/>
+  <dimension ref="A1:S79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -564,29 +564,13 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>l</t>
         </is>
       </c>
     </row>
@@ -649,8 +633,16 @@
           <t>o</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
@@ -658,21 +650,21 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>68</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>68</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>a.mtambo</t>
+          <t>a.nanjala</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -681,13 +673,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -695,33 +687,33 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>103</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>103</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>a.nanjala</t>
+          <t>a.tindimwebwa</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -738,177 +730,185 @@
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>126</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>126</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>a.tindimwebwa</t>
+          <t>b.awio</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>b</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>127</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>127</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>b.awio</t>
+          <t>b.ayuba</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>169</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>b.ayuba</t>
+          <t>b.mhamid</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -925,51 +925,47 @@
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>231</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>b.mhamid</t>
+          <t>c.baluka</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -981,72 +977,52 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>o</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>o</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>o</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>255</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>c.baluka</t>
+          <t>c.kabagambe</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -1058,41 +1034,33 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1133,7 +1101,11 @@
           <t>b</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
       <c r="L11" t="inlineStr">
         <is>
           <t>b</t>
@@ -1169,11 +1141,7 @@
           <t>b</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
+      <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1214,22 +1182,18 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr">
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>b</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>b</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr">
         <is>
           <t>b</t>
@@ -1310,16 +1274,8 @@
           <t>o</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1380,8 +1336,16 @@
           <t>b</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
@@ -1415,7 +1379,7 @@
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1447,24 +1411,16 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>o</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr">
         <is>
           <t>l</t>
@@ -1510,11 +1466,7 @@
           <t>o</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
           <t>o</t>
@@ -1530,8 +1482,16 @@
           <t>o</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
@@ -1539,21 +1499,21 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>518</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>518</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>e.mudzingwa</t>
+          <t>e.nakanjako</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -1562,10 +1522,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1574,31 +1534,35 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+      <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>518</t>
+          <t>560</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>518</t>
+          <t>560</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>e.nakanjako</t>
+          <t>f.akumu</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -1608,13 +1572,13 @@
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1628,61 +1592,77 @@
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>o</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>o</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>o</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>576</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>576</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>f.akumu</t>
+          <t>f.chin</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>o</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1692,61 +1672,57 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>594</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>f.chin</t>
+          <t>f.ithungu</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="L20" t="inlineStr">
         <is>
           <t>o</t>
@@ -1791,85 +1767,49 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>712</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>712</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>f.ithungu</t>
+          <t>g.jankowski</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>l</t>
         </is>
       </c>
     </row>
@@ -1912,7 +1852,11 @@
           <t>o</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="L22" t="inlineStr">
         <is>
           <t>o</t>
@@ -1920,17 +1864,17 @@
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr">
         <is>
           <t>o</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
     </row>
@@ -1993,8 +1937,16 @@
           <t>l</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
@@ -2002,21 +1954,21 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>801</t>
+          <t>805</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>801</t>
+          <t>805</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>h.amade</t>
+          <t>h.azizi</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
@@ -2025,63 +1977,55 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>o</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>o</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>o</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>805</t>
+          <t>875</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>805</t>
+          <t>875</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>h.azizi</t>
+          <t>h.oliveira</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -2103,26 +2047,10 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr">
         <is>
           <t>o</t>
@@ -2132,21 +2060,21 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>848</t>
+          <t>893</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>848</t>
+          <t>893</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>h.makumbi</t>
+          <t>h.tourgeman</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
@@ -2163,11 +2091,31 @@
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
       <c r="O26" t="inlineStr">
         <is>
           <t>l</t>
@@ -2175,7 +2123,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>l</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
@@ -2193,21 +2141,21 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>875</t>
+          <t>997</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>875</t>
+          <t>997</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>h.oliveira</t>
+          <t>i.saha</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
@@ -2216,13 +2164,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -2230,41 +2178,33 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>l</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>893</t>
+          <t>1007</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>893</t>
+          <t>1007</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>h.tourgeman</t>
+          <t>i.tabu</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
@@ -2276,34 +2216,22 @@
         <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
@@ -2311,33 +2239,33 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>997</t>
+          <t>1026</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>997</t>
+          <t>1026</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>i.saha</t>
+          <t>j.bah</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2347,95 +2275,91 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>1007</t>
+          <t>1033</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1007</t>
+          <t>1033</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>i.tabu</t>
+          <t>j.chao</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="S30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>1008</t>
+          <t>1061</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1008</t>
+          <t>1061</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>i.takeuchi</t>
+          <t>j.lopez</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E31" t="n">
         <v>1</v>
@@ -2447,22 +2371,46 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>o</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
@@ -2470,17 +2418,17 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>1026</t>
+          <t>1097</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1026</t>
+          <t>1097</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>j.bah</t>
+          <t>j.odeke</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -2496,36 +2444,20 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr">
         <is>
           <t>b</t>
@@ -2535,21 +2467,21 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>1111</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>1111</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>j.chao</t>
+          <t>j.sembiring</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -2566,12 +2498,24 @@
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
       <c r="P33" t="inlineStr">
         <is>
           <t>b</t>
@@ -2582,31 +2526,31 @@
           <t>b</t>
         </is>
       </c>
-      <c r="R33" t="inlineStr">
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr">
         <is>
           <t>b</t>
         </is>
       </c>
-      <c r="S33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>1061</t>
+          <t>1135</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1061</t>
+          <t>1135</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>j.lopez</t>
+          <t>k.alzahrani</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E34" t="n">
         <v>1</v>
@@ -2615,90 +2559,70 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr">
         <is>
           <t>o</t>
         </is>
       </c>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>1067</t>
+          <t>1137</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1067</t>
+          <t>1137</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>j.maier</t>
+          <t>k.amoding</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -2707,32 +2631,32 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>1097</t>
+          <t>1148</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1097</t>
+          <t>1148</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>j.odeke</t>
+          <t>k.bintiali</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -2745,39 +2669,23 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr">
         <is>
           <t>b</t>
@@ -2787,24 +2695,24 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>1111</t>
+          <t>1200</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1111</t>
+          <t>1200</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>j.sembiring</t>
+          <t>k.nalwanga</t>
         </is>
       </c>
       <c r="D37" t="n">
         <v>21</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -2813,60 +2721,52 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>o</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>o</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>o</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>1135</t>
+          <t>1217</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1135</t>
+          <t>1217</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>k.alzahrani</t>
+          <t>k.ramos</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E38" t="n">
         <v>1</v>
@@ -2875,22 +2775,42 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>o</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -2910,28 +2830,28 @@
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>o</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>1200</t>
+          <t>1272</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1200</t>
+          <t>1272</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>k.nalwanga</t>
+          <t>l.jung</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E39" t="n">
         <v>1</v>
@@ -2940,62 +2860,54 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>l</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>1217</t>
+          <t>1313</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1217</t>
+          <t>1313</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>k.ramos</t>
+          <t>l.ndoro</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3009,75 +2921,39 @@
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>1288</t>
+          <t>1361</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1288</t>
+          <t>1361</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>l.leibowitz</t>
+          <t>m.bwire</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E41" t="n">
         <v>1</v>
@@ -3094,50 +2970,66 @@
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
       <c r="O41" t="inlineStr">
         <is>
           <t>l</t>
         </is>
       </c>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>1313</t>
+          <t>1403</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1313</t>
+          <t>1403</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>l.ndoro</t>
+          <t>m.muhindo</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3151,43 +3043,71 @@
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>1335</t>
+          <t>1425</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1335</t>
+          <t>1425</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>l.tambala</t>
+          <t>m.okori</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E43" t="n">
         <v>1</v>
@@ -3205,103 +3125,115 @@
         <v>1</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>1361</t>
+          <t>1469</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1361</t>
+          <t>1469</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>m.bwire</t>
+          <t>n.irawan</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E44" t="n">
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>o</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>1403</t>
+          <t>1506</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1403</t>
+          <t>1506</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>m.muhindo</t>
+          <t>n.terzi</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E45" t="n">
         <v>1</v>
@@ -3313,56 +3245,40 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="S45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>1425</t>
+          <t>1513</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1425</t>
+          <t>1513</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>m.okori</t>
+          <t>n.yamashita</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -3375,57 +3291,53 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>1469</t>
+          <t>1584</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1469</t>
+          <t>1584</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>n.irawan</t>
+          <t>o.tshuma</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E47" t="n">
         <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -3434,61 +3346,73 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>l</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>l</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>l</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>l</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>1506</t>
+          <t>1588</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1506</t>
+          <t>1588</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>n.terzi</t>
+          <t>o.wanjala</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E48" t="n">
         <v>1</v>
@@ -3500,44 +3424,80 @@
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="R48" t="inlineStr">
         <is>
           <t>o</t>
         </is>
       </c>
-      <c r="S48" t="inlineStr"/>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>1513</t>
+          <t>1662</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1513</t>
+          <t>1662</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>n.yamashita</t>
+          <t>p.villa</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E49" t="n">
         <v>1</v>
@@ -3546,10 +3506,10 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -3559,22 +3519,10 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+      <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr">
         <is>
           <t>l</t>
@@ -3584,21 +3532,21 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>1584</t>
+          <t>1669</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1584</t>
+          <t>1669</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>o.tshuma</t>
+          <t>q.ajiko</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E50" t="n">
         <v>1</v>
@@ -3613,7 +3561,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -3640,30 +3588,50 @@
           <t>l</t>
         </is>
       </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>1588</t>
+          <t>1688</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1588</t>
+          <t>1688</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>o.wanjala</t>
+          <t>q.hamalainen</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E51" t="n">
         <v>1</v>
@@ -3672,83 +3640,51 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>l</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>1669</t>
+          <t>1775</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1669</t>
+          <t>1775</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>q.ajiko</t>
+          <t>r.jimenez</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E52" t="n">
         <v>1</v>
@@ -3765,55 +3701,39 @@
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr"/>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>1688</t>
+          <t>1791</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1688</t>
+          <t>1791</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>q.hamalainen</t>
+          <t>r.mensah</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E53" t="n">
         <v>1</v>
@@ -3822,59 +3742,47 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>1775</t>
+          <t>1815</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1775</t>
+          <t>1815</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>r.jimenez</t>
+          <t>r.taketa</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E54" t="n">
         <v>1</v>
@@ -3886,60 +3794,60 @@
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="O54" t="inlineStr">
         <is>
           <t>o</t>
         </is>
       </c>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>1815</t>
+          <t>1851</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1815</t>
+          <t>1851</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>r.taketa</t>
+          <t>s.hashemi</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E55" t="n">
         <v>1</v>
@@ -3956,63 +3864,47 @@
       <c r="I55" t="n">
         <v>1</v>
       </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
           <t>o</t>
         </is>
       </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>1851</t>
+          <t>1894</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1851</t>
+          <t>1894</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>s.hashemi</t>
+          <t>s.razaee</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E56" t="n">
         <v>1</v>
@@ -4024,51 +3916,79 @@
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="P56" t="inlineStr">
         <is>
           <t>o</t>
         </is>
       </c>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>1894</t>
+          <t>1895</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1894</t>
+          <t>1895</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>s.razaee</t>
+          <t>s.rizzo</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
@@ -4077,80 +3997,44 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>1895</t>
+          <t>1896</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1895</t>
+          <t>1896</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>s.rizzo</t>
+          <t>s.rostami</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
@@ -4162,20 +4046,20 @@
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
+      <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
@@ -4217,7 +4101,11 @@
         <v>1</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="L59" t="inlineStr">
         <is>
           <t>o</t>
@@ -4262,21 +4150,21 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>1947</t>
+          <t>1968</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1947</t>
+          <t>1968</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>t.larsson</t>
+          <t>t.okoro</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E60" t="n">
         <v>1</v>
@@ -4293,46 +4181,74 @@
       <c r="I60" t="n">
         <v>1</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>t.okoro</t>
+          <t>u.gomani</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -4341,34 +4257,22 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr"/>
@@ -4417,17 +4321,41 @@
           <t>l</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
       <c r="N62" t="inlineStr">
         <is>
           <t>l</t>
         </is>
       </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
       <c r="S62" t="inlineStr"/>
     </row>
     <row r="63">
@@ -4489,8 +4417,16 @@
           <t>o</t>
         </is>
       </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr"/>
@@ -4498,36 +4434,36 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2130</t>
+          <t>2103</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2130</t>
+          <t>2103</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>v.sultan</t>
+          <t>v.meijermeyer</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -4536,48 +4472,32 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr">
         <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2149</t>
+          <t>2130</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2149</t>
+          <t>2130</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>w.dehghani</t>
+          <t>v.sultan</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E65" t="n">
         <v>1</v>
@@ -4589,39 +4509,23 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="R65" t="inlineStr">
         <is>
           <t>o</t>
@@ -4636,21 +4540,21 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2153</t>
+          <t>2149</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2153</t>
+          <t>2149</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>w.guo</t>
+          <t>w.dehghani</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E66" t="n">
         <v>1</v>
@@ -4662,17 +4566,21 @@
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
           <t>o</t>
         </is>
       </c>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="L66" t="inlineStr">
         <is>
           <t>o</t>
@@ -4683,9 +4591,21 @@
           <t>o</t>
         </is>
       </c>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr"/>
@@ -4693,21 +4613,21 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2168</t>
+          <t>2153</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2168</t>
+          <t>2153</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>w.martinez</t>
+          <t>w.guo</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E67" t="n">
         <v>1</v>
@@ -4716,139 +4636,139 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="M67" t="inlineStr">
         <is>
           <t>o</t>
         </is>
       </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="P67" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2178</t>
+          <t>2168</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2178</t>
+          <t>2168</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>w.nantale</t>
+          <t>w.martinez</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>o</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>o</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>o</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>o</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>o</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2193</t>
+          <t>2178</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2193</t>
+          <t>2178</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>w.yeoh</t>
+          <t>w.nantale</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
@@ -4857,63 +4777,55 @@
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2212</t>
+          <t>2193</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2212</t>
+          <t>2193</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>x.haji</t>
+          <t>w.yeoh</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -4927,16 +4839,36 @@
       <c r="I70" t="n">
         <v>1</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr"/>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr"/>
@@ -4945,24 +4877,24 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2230</t>
+          <t>2212</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2230</t>
+          <t>2212</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>x.masaba</t>
+          <t>x.haji</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
@@ -4971,26 +4903,38 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>b</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr"/>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr"/>
@@ -4998,21 +4942,21 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2263</t>
+          <t>2230</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2263</t>
+          <t>2230</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>x.takagi</t>
+          <t>x.masaba</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E72" t="n">
         <v>1</v>
@@ -5024,48 +4968,64 @@
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="O72" t="inlineStr">
         <is>
           <t>o</t>
         </is>
       </c>
       <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2266</t>
+          <t>2263</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2266</t>
+          <t>2263</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>x.thomas</t>
+          <t>x.takagi</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E73" t="n">
         <v>1</v>
@@ -5074,55 +5034,51 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr"/>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="S73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2339</t>
+          <t>2266</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2339</t>
+          <t>2266</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>y.thungu</t>
+          <t>x.thomas</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E74" t="n">
         <v>1</v>
@@ -5131,39 +5087,31 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>o</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>o</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
@@ -5173,21 +5121,21 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2340</t>
+          <t>2339</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2340</t>
+          <t>2339</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>y.torres</t>
+          <t>y.thungu</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E75" t="n">
         <v>1</v>
@@ -5196,63 +5144,55 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
       <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
       <c r="S75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2381</t>
+          <t>2340</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2381</t>
+          <t>2340</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>z.knezevi</t>
+          <t>y.torres</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E76" t="n">
         <v>1</v>
@@ -5261,111 +5201,171 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>l</t>
         </is>
       </c>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
       <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
       <c r="S76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2411</t>
+          <t>2381</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2411</t>
+          <t>2381</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>z.rojas</t>
+          <t>z.knezevi</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
       <c r="S77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2421</t>
+          <t>2411</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2421</t>
+          <t>2411</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>z.zziwa</t>
+          <t>z.rojas</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -5374,9 +5374,66 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
       <c r="S78" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>2421</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2421</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>z.zziwa</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>23</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr">
         <is>
           <t>l</t>
         </is>
